--- a/public/data/evolucao.xlsx
+++ b/public/data/evolucao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awer\C2DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awer\c2di-3110\c2di-front\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23F5705F-34B3-4142-A4AB-7D086E6C23D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529D9063-D49B-403F-B892-8F59A9ADF995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5004" yWindow="2196" windowWidth="18072" windowHeight="14364" xr2:uid="{3D6D332C-6547-41E4-BA6F-553C23B0D63B}"/>
   </bookViews>
@@ -57,9 +57,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -94,25 +93,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729FF93-78F9-4BF9-8DA1-3E8005B6F0B6}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,10 +453,9 @@
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,675 +472,649 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45597</v>
       </c>
-      <c r="B2" s="5">
-        <v>6506.6724999999997</v>
-      </c>
-      <c r="C2" s="5">
-        <v>6442.25</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3">
+        <v>6234.32</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6443</v>
+      </c>
+      <c r="D2" s="2">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="E2" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="2">
+        <v>8.4999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45627</v>
       </c>
-      <c r="B3" s="5">
-        <v>13013.344999999999</v>
-      </c>
-      <c r="C3" s="5">
-        <v>12884.5</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="4">
+        <v>13014</v>
+      </c>
+      <c r="C3" s="3">
+        <v>12885</v>
+      </c>
+      <c r="D3" s="2">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="2">
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45658</v>
       </c>
-      <c r="B4" s="5">
-        <v>18399.066000000003</v>
-      </c>
-      <c r="C4" s="5">
-        <v>18038.300000000003</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="3">
+        <v>18400</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18039</v>
+      </c>
+      <c r="D4" s="2">
         <v>7.06930693069307E-2</v>
       </c>
-      <c r="E4" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="2">
+        <v>0.1306930693069307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45689</v>
       </c>
-      <c r="B5" s="5">
-        <v>28912.818000000003</v>
-      </c>
-      <c r="C5" s="5">
-        <v>28345.9</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="3">
+        <v>28913</v>
+      </c>
+      <c r="C5" s="3">
+        <v>28346</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.1110891089108911</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="2">
+        <v>0.1710891089108911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45717</v>
       </c>
-      <c r="B6" s="5">
-        <v>37158.898000000008</v>
-      </c>
-      <c r="C6" s="5">
-        <v>36076.600000000006</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="3">
+        <v>37159</v>
+      </c>
+      <c r="C6" s="3">
+        <v>36077</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.14277227722772282</v>
       </c>
-      <c r="E6" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="2">
+        <v>0.20277227722772281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45748</v>
       </c>
-      <c r="B7" s="5">
-        <v>38486.001499999998</v>
-      </c>
-      <c r="C7" s="5">
-        <v>37365.049999999996</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="3">
+        <v>38487</v>
+      </c>
+      <c r="C7" s="3">
+        <v>37366</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.14787128712871286</v>
       </c>
-      <c r="E7" s="4">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="2">
+        <v>0.20787128712871286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45778</v>
       </c>
-      <c r="B8" s="5">
-        <v>46899.58</v>
-      </c>
-      <c r="C8" s="5">
-        <v>45095.75</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="3">
+        <v>46900</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45096</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.18019801980198022</v>
       </c>
-      <c r="E8" s="4">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="2">
+        <v>0.24019801980198022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45809</v>
       </c>
-      <c r="B9" s="5">
-        <v>53882.978999999999</v>
-      </c>
-      <c r="C9" s="5">
-        <v>52826.45</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="3">
+        <v>53883</v>
+      </c>
+      <c r="C9" s="3">
+        <v>52827</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.20702970297029702</v>
       </c>
-      <c r="E9" s="4">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="2">
+        <v>0.26702970297029704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45839</v>
       </c>
-      <c r="B10" s="5">
-        <v>57258.718000000001</v>
-      </c>
-      <c r="C10" s="5">
-        <v>56691.8</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="3">
+        <v>57259</v>
+      </c>
+      <c r="C10" s="3">
+        <v>56692</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.22</v>
       </c>
-      <c r="E10" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45870</v>
       </c>
-      <c r="B11" s="5">
-        <v>61768.292999999998</v>
-      </c>
-      <c r="C11" s="5">
-        <v>60557.149999999994</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="3">
+        <v>61769</v>
+      </c>
+      <c r="C11" s="3">
+        <v>60558</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.23732673267326732</v>
       </c>
-      <c r="E11" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="2">
+        <v>0.29732673267326731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45901</v>
       </c>
-      <c r="B12" s="5">
-        <v>69679.376000000018</v>
-      </c>
-      <c r="C12" s="5">
-        <v>66999.400000000009</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="3">
+        <v>69680</v>
+      </c>
+      <c r="C12" s="3">
+        <v>67000</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.26772277227722779</v>
       </c>
-      <c r="E12" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="2">
+        <v>0.32772277227722779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45931</v>
       </c>
-      <c r="B13" s="5">
-        <v>78466.604999999996</v>
-      </c>
-      <c r="C13" s="5">
-        <v>74730.099999999991</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="3">
+        <v>78467</v>
+      </c>
+      <c r="C13" s="3">
+        <v>74731</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.30148514851485148</v>
       </c>
-      <c r="E13" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="2">
+        <v>0.36148514851485147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45962</v>
       </c>
-      <c r="B14" s="5">
-        <v>79213.905999999988</v>
-      </c>
-      <c r="C14" s="5">
-        <v>74730.099999999991</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B14" s="3">
+        <v>79214</v>
+      </c>
+      <c r="C14" s="3">
+        <v>74731</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.30435643564356429</v>
       </c>
-      <c r="E14" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="2">
+        <v>0.36435643564356429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45992</v>
       </c>
-      <c r="B15" s="5">
-        <v>81984.073500000013</v>
-      </c>
-      <c r="C15" s="5">
-        <v>81172.350000000006</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="3">
+        <v>81985</v>
+      </c>
+      <c r="C15" s="3">
+        <v>81173</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.31500000000000006</v>
       </c>
-      <c r="E15" s="4">
-        <v>0.315</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="2">
+        <v>0.37500000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>46023</v>
       </c>
-      <c r="B16" s="5">
-        <v>89366.892000000007</v>
-      </c>
-      <c r="C16" s="5">
-        <v>87614.6</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="3">
+        <v>89367</v>
+      </c>
+      <c r="C16" s="3">
+        <v>87615</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.34336633663366339</v>
       </c>
-      <c r="E16" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="2">
+        <v>0.40336633663366339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>46054</v>
       </c>
-      <c r="B17" s="5">
-        <v>91093.414999999994</v>
-      </c>
-      <c r="C17" s="5">
-        <v>90191.5</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="3">
+        <v>91094</v>
+      </c>
+      <c r="C17" s="3">
+        <v>90192</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.35</v>
       </c>
-      <c r="E17" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>46082</v>
       </c>
-      <c r="B18" s="5">
-        <v>95937.986999999994</v>
-      </c>
-      <c r="C18" s="5">
-        <v>94056.849999999991</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="3">
+        <v>95938</v>
+      </c>
+      <c r="C18" s="3">
+        <v>94057</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.36861386138613861</v>
       </c>
-      <c r="E18" s="4">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="2">
+        <v>0.42861386138613861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>46113</v>
       </c>
-      <c r="B19" s="5">
-        <v>103514.073</v>
-      </c>
-      <c r="C19" s="5">
-        <v>100499.1</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="3">
+        <v>103515</v>
+      </c>
+      <c r="C19" s="3">
+        <v>100500</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.39772277227722774</v>
       </c>
-      <c r="E19" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="2">
+        <v>0.45772277227722774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>46143</v>
       </c>
-      <c r="B20" s="5">
-        <v>108822.48699999999</v>
-      </c>
-      <c r="C20" s="5">
-        <v>105652.9</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="3">
+        <v>108823</v>
+      </c>
+      <c r="C20" s="3">
+        <v>105653</v>
+      </c>
+      <c r="D20" s="2">
         <v>0.4181188118811881</v>
       </c>
-      <c r="E20" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="2">
+        <v>0.4781188118811881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>46174</v>
       </c>
-      <c r="B21" s="5">
-        <v>111219.004</v>
-      </c>
-      <c r="C21" s="5">
-        <v>106941.34999999999</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="3">
+        <v>111220</v>
+      </c>
+      <c r="C21" s="3">
+        <v>106942</v>
+      </c>
+      <c r="D21" s="2">
         <v>0.42732673267326732</v>
       </c>
-      <c r="E21" s="4">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="2">
+        <v>0.48732673267326732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46204</v>
       </c>
-      <c r="B22" s="5">
-        <v>116578.95599999999</v>
-      </c>
-      <c r="C22" s="5">
-        <v>112095.15</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="3">
+        <v>116579</v>
+      </c>
+      <c r="C22" s="3">
+        <v>112096</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.44792079207920787</v>
       </c>
-      <c r="E22" s="4">
-        <v>0.435</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="2">
+        <v>0.50792079207920793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>46235</v>
       </c>
-      <c r="B23" s="5">
-        <v>119593.929</v>
-      </c>
-      <c r="C23" s="5">
-        <v>117248.95</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="3">
+        <v>119594</v>
+      </c>
+      <c r="C23" s="3">
+        <v>117249</v>
+      </c>
+      <c r="D23" s="2">
         <v>0.45950495049504952</v>
       </c>
-      <c r="E23" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="2">
+        <v>0.51950495049504952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>46266</v>
       </c>
-      <c r="B24" s="5">
-        <v>123536.586</v>
-      </c>
-      <c r="C24" s="5">
-        <v>121114.29999999999</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="3">
+        <v>123537</v>
+      </c>
+      <c r="C24" s="3">
+        <v>121115</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.47465346534653463</v>
       </c>
-      <c r="E24" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="2">
+        <v>0.53465346534653468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>46296</v>
       </c>
-      <c r="B25" s="5">
-        <v>123626.7775</v>
-      </c>
-      <c r="C25" s="5">
-        <v>122402.75</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="3">
+        <v>123627</v>
+      </c>
+      <c r="C25" s="3">
+        <v>122403</v>
+      </c>
+      <c r="D25" s="2">
         <v>0.47499999999999998</v>
       </c>
-      <c r="E25" s="4">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="2">
+        <v>0.53499999999999992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>46327</v>
       </c>
-      <c r="B26" s="5">
-        <v>127530.78099999999</v>
-      </c>
-      <c r="C26" s="5">
-        <v>126268.09999999999</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="3">
+        <v>127531</v>
+      </c>
+      <c r="C26" s="3">
+        <v>126269</v>
+      </c>
+      <c r="D26" s="2">
         <v>0.49</v>
       </c>
-      <c r="E26" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>46357</v>
       </c>
-      <c r="B27" s="5">
-        <v>130133.45</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="3">
+        <v>130134</v>
+      </c>
+      <c r="C27" s="3">
         <v>128845</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>0.5</v>
       </c>
-      <c r="E27" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>46388</v>
       </c>
-      <c r="B28" s="5">
-        <v>135338.78800000003</v>
-      </c>
-      <c r="C28" s="5">
-        <v>133998.80000000002</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="3">
+        <v>135339</v>
+      </c>
+      <c r="C28" s="3">
+        <v>133999</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.52000000000000013</v>
       </c>
-      <c r="E28" s="4">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="2">
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>46419</v>
       </c>
-      <c r="B29" s="5">
-        <v>149460.19999999998</v>
-      </c>
-      <c r="C29" s="5">
-        <v>149460.19999999998</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="B29" s="3">
+        <v>149461</v>
+      </c>
+      <c r="C29" s="3">
+        <v>149461</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.57425742574257421</v>
       </c>
-      <c r="E29" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="2">
+        <v>0.63425742574257415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>46447</v>
       </c>
-      <c r="B30" s="5">
-        <v>162344.70000000001</v>
-      </c>
-      <c r="C30" s="5">
-        <v>162344.70000000001</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30" s="3">
+        <v>162345</v>
+      </c>
+      <c r="C30" s="3">
+        <v>162345</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.62376237623762387</v>
       </c>
-      <c r="E30" s="4">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E30" s="2">
+        <v>0.68376237623762393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>46478</v>
       </c>
-      <c r="B31" s="5">
-        <v>175229.2</v>
-      </c>
-      <c r="C31" s="5">
-        <v>175229.2</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="B31" s="3">
+        <v>175230</v>
+      </c>
+      <c r="C31" s="3">
+        <v>175230</v>
+      </c>
+      <c r="D31" s="2">
         <v>0.67326732673267331</v>
       </c>
-      <c r="E31" s="4">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="2">
+        <v>0.73326732673267325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>46508</v>
       </c>
-      <c r="B32" s="5">
-        <v>195638.24799999999</v>
-      </c>
-      <c r="C32" s="5">
-        <v>188113.69999999998</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="3">
+        <v>195639</v>
+      </c>
+      <c r="C32" s="3">
+        <v>188114</v>
+      </c>
+      <c r="D32" s="2">
         <v>0.75168316831683168</v>
       </c>
-      <c r="E32" s="4">
-        <v>0.73</v>
+      <c r="E32" s="2">
+        <v>0.81168316831683174</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>46539</v>
       </c>
-      <c r="B33" s="5">
-        <v>203008.182</v>
-      </c>
-      <c r="C33" s="5">
-        <v>200998.2</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="B33" s="3">
+        <v>203009</v>
+      </c>
+      <c r="C33" s="3">
+        <v>200999</v>
+      </c>
+      <c r="D33" s="2">
         <v>0.78</v>
       </c>
-      <c r="E33" s="4">
-        <v>0.78</v>
+      <c r="E33" s="2">
+        <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>46569</v>
       </c>
-      <c r="B34" s="5">
-        <v>218160.35399999999</v>
-      </c>
-      <c r="C34" s="5">
-        <v>213882.69999999998</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="B34" s="3">
+        <v>218161</v>
+      </c>
+      <c r="C34" s="3">
+        <v>213883</v>
+      </c>
+      <c r="D34" s="2">
         <v>0.83821782178217819</v>
       </c>
-      <c r="E34" s="4">
-        <v>0.83</v>
+      <c r="E34" s="2">
+        <v>0.89821782178217813</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>46600</v>
       </c>
-      <c r="B35" s="5">
-        <v>228674.106</v>
-      </c>
-      <c r="C35" s="5">
-        <v>224190.3</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="B35" s="3">
+        <v>228675</v>
+      </c>
+      <c r="C35" s="3">
+        <v>224191</v>
+      </c>
+      <c r="D35" s="2">
         <v>0.87861386138613862</v>
       </c>
-      <c r="E35" s="4">
-        <v>0.87</v>
+      <c r="E35" s="2">
+        <v>0.93861386138613856</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>46631</v>
       </c>
-      <c r="B36" s="5">
-        <v>241532.837</v>
-      </c>
-      <c r="C36" s="5">
-        <v>234497.9</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="B36" s="3">
+        <v>241533</v>
+      </c>
+      <c r="C36" s="3">
+        <v>234498</v>
+      </c>
+      <c r="D36" s="2">
         <v>0.92801980198019807</v>
       </c>
-      <c r="E36" s="4">
-        <v>0.91</v>
+      <c r="E36" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>46661</v>
       </c>
-      <c r="B37" s="5">
-        <v>254597.72</v>
-      </c>
-      <c r="C37" s="5">
-        <v>244805.5</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="B37" s="3">
+        <v>254598</v>
+      </c>
+      <c r="C37" s="3">
+        <v>244806</v>
+      </c>
+      <c r="D37" s="2">
         <v>0.9782178217821782</v>
       </c>
-      <c r="E37" s="4">
-        <v>0.95</v>
+      <c r="E37" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>46692</v>
       </c>
-      <c r="B38" s="5">
-        <v>255061.56199999998</v>
-      </c>
-      <c r="C38" s="5">
-        <v>252536.19999999998</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="B38" s="3">
+        <v>255062</v>
+      </c>
+      <c r="C38" s="3">
+        <v>252537</v>
+      </c>
+      <c r="D38" s="2">
         <v>0.98</v>
       </c>
-      <c r="E38" s="4">
-        <v>0.98</v>
+      <c r="E38" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>46722</v>
       </c>
-      <c r="B39" s="5">
-        <v>260266.9</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="B39" s="3">
+        <v>260267</v>
+      </c>
+      <c r="C39" s="3">
         <v>257690</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="2">
         <v>1</v>
       </c>
     </row>

--- a/public/data/evolucao.xlsx
+++ b/public/data/evolucao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awer\c2di-3110\c2di-front\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F61599-2460-4C52-99CC-2EF4DF6F2810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ED150C-A9E4-411D-AED2-48A6AD63EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5004" yWindow="2196" windowWidth="18072" windowHeight="14364" xr2:uid="{3D6D332C-6547-41E4-BA6F-553C23B0D63B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{3D6D332C-6547-41E4-BA6F-553C23B0D63B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C39"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,649 +474,605 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45597</v>
+        <v>44866</v>
       </c>
       <c r="B2" s="3">
         <v>6234.32</v>
       </c>
       <c r="C2" s="3">
-        <v>6443</v>
+        <v>6234.3173999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>2.4999999999999998E-2</v>
+        <v>1.487944220121867E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>8.4999999999999992E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45627</v>
+        <v>44896</v>
       </c>
       <c r="B3" s="4">
-        <v>13014</v>
+        <v>7112.1122559999994</v>
       </c>
       <c r="C3" s="3">
-        <v>12885</v>
+        <v>7106.4984042599999</v>
       </c>
       <c r="D3" s="2">
-        <v>4.9999999999999996E-2</v>
+        <v>1.697446766315026E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>0.10999999999999999</v>
+        <v>2.7400800000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45658</v>
+        <v>44927</v>
       </c>
       <c r="B4" s="3">
-        <v>18400</v>
+        <v>7954.8975583359988</v>
       </c>
       <c r="C4" s="3">
-        <v>18039</v>
+        <v>7933.6948185158635</v>
       </c>
       <c r="D4" s="2">
-        <v>7.06930693069307E-2</v>
+        <v>1.8985942081233564E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>0.1306930693069307</v>
+        <v>3.0705336479999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45689</v>
+        <v>44958</v>
       </c>
       <c r="B5" s="3">
-        <v>28913</v>
+        <v>9012.1034438388524</v>
       </c>
       <c r="C5" s="3">
-        <v>28346</v>
+        <v>8970.6287312958866</v>
       </c>
       <c r="D5" s="2">
-        <v>0.1110891089108911</v>
+        <v>2.1509173783829501E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>0.1710891089108911</v>
+        <v>3.4853627438447998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45717</v>
+        <v>44986</v>
       </c>
       <c r="B6" s="3">
-        <v>37159</v>
+        <v>10077.334070900604</v>
       </c>
       <c r="C6" s="3">
-        <v>36077</v>
+        <v>10023.780544350022</v>
       </c>
       <c r="D6" s="2">
-        <v>0.14277227722772282</v>
+        <v>2.405155812507815E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>0.20277227722772281</v>
+        <v>3.9001209103623306E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45748</v>
+        <v>45017</v>
       </c>
       <c r="B7" s="3">
-        <v>38487</v>
+        <v>11716.916324236132</v>
       </c>
       <c r="C7" s="3">
-        <v>37366</v>
+        <v>11630.59256560933</v>
       </c>
       <c r="D7" s="2">
-        <v>0.14787128712871286</v>
+        <v>2.7964746632028362E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>0.20787128712871286</v>
+        <v>4.5440308726631511E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45778</v>
+        <v>45047</v>
       </c>
       <c r="B8" s="3">
-        <v>46900</v>
+        <v>13524.836513065768</v>
       </c>
       <c r="C8" s="3">
-        <v>45096</v>
+        <v>13404.257931864755</v>
       </c>
       <c r="D8" s="2">
-        <v>0.18019801980198022</v>
+        <v>3.2279707037350336E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>0.24019801980198022</v>
+        <v>5.2533540918858694E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45809</v>
+        <v>45078</v>
       </c>
       <c r="B9" s="3">
-        <v>53883</v>
+        <v>14832.688203879228</v>
       </c>
       <c r="C9" s="3">
-        <v>52827</v>
+        <v>14696.428396496518</v>
       </c>
       <c r="D9" s="2">
-        <v>0.20702970297029702</v>
+        <v>3.540115470786212E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>0.26702970297029704</v>
+        <v>5.7629294387987993E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45839</v>
+        <v>45108</v>
       </c>
       <c r="B10" s="3">
-        <v>57259</v>
+        <v>16631.89328300978</v>
       </c>
       <c r="C10" s="3">
-        <v>56692</v>
+        <v>16461.469446915751</v>
       </c>
       <c r="D10" s="2">
-        <v>0.22</v>
+        <v>3.9695314773925801E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>0.28000000000000003</v>
+        <v>6.468888295051653E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45870</v>
+        <v>45139</v>
       </c>
       <c r="B11" s="3">
-        <v>61769</v>
+        <v>17591.553525439445</v>
       </c>
       <c r="C11" s="3">
-        <v>60558</v>
+        <v>17370.142560385502</v>
       </c>
       <c r="D11" s="2">
-        <v>0.23732673267326732</v>
+        <v>4.1985734436381317E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>0.29732673267326731</v>
+        <v>6.8583153704137631E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45901</v>
+        <v>45170</v>
       </c>
       <c r="B12" s="3">
-        <v>69680</v>
+        <v>20684.148635211699</v>
       </c>
       <c r="C12" s="3">
-        <v>67000</v>
+        <v>20409.917508452963</v>
       </c>
       <c r="D12" s="2">
-        <v>0.26772277227722779</v>
+        <v>4.9366826550297151E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>0.32772277227722779</v>
+        <v>8.0694938648288334E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45931</v>
+        <v>45200</v>
       </c>
       <c r="B13" s="3">
-        <v>78467</v>
+        <v>24012.228150617262</v>
       </c>
       <c r="C13" s="3">
-        <v>74731</v>
+        <v>23657.13538404783</v>
       </c>
       <c r="D13" s="2">
-        <v>0.30148514851485148</v>
+        <v>5.7309948942239966E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>0.36148514851485147</v>
+        <v>9.3824005166364854E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45962</v>
+        <v>45231</v>
       </c>
       <c r="B14" s="3">
-        <v>79214</v>
+        <v>25705.090235235781</v>
       </c>
       <c r="C14" s="3">
-        <v>74731</v>
+        <v>25258.72344954787</v>
       </c>
       <c r="D14" s="2">
-        <v>0.30435643564356429</v>
+        <v>6.1350300342667884E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>0.36435643564356429</v>
+        <v>0.10070130474505939</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45992</v>
+        <v>45261</v>
       </c>
       <c r="B15" s="3">
-        <v>81985</v>
+        <v>29586.558860756384</v>
       </c>
       <c r="C15" s="3">
-        <v>81173</v>
+        <v>29060.161328704824</v>
       </c>
       <c r="D15" s="2">
-        <v>0.31500000000000006</v>
+        <v>7.0614195694410742E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>0.37500000000000006</v>
+        <v>0.1159575524139359</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>46023</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="3">
-        <v>89367</v>
+        <v>32417.992543730768</v>
       </c>
       <c r="C16" s="3">
-        <v>87615</v>
+        <v>31826.688687197518</v>
       </c>
       <c r="D16" s="2">
-        <v>0.34336633663366339</v>
+        <v>7.7371974222365844E-2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.40336633663366339</v>
+        <v>0.12711266895615653</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>46054</v>
+        <v>45323</v>
       </c>
       <c r="B17" s="3">
-        <v>91094</v>
+        <v>34252.850921705933</v>
       </c>
       <c r="C17" s="4">
-        <v>90192</v>
+        <v>33621.713929155456</v>
       </c>
       <c r="D17" s="2">
-        <v>0.35</v>
+        <v>8.1751227963351755E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>0.41</v>
+        <v>0.13433266855286621</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>46082</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="3">
-        <v>95938</v>
+        <v>38520.756146550491</v>
       </c>
       <c r="C18" s="4">
-        <v>94057</v>
+        <v>37726.925199905338</v>
       </c>
       <c r="D18" s="2">
-        <v>0.36861386138613861</v>
+        <v>9.1937430967585387E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>0.42861386138613861</v>
+        <v>0.1514063507259355</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>46113</v>
+        <v>45383</v>
       </c>
       <c r="B19" s="3">
-        <v>103515</v>
+        <v>40623.98943215215</v>
       </c>
       <c r="C19" s="4">
-        <v>100500</v>
+        <v>39677.407232740443</v>
       </c>
       <c r="D19" s="2">
-        <v>0.39772277227722774</v>
+        <v>9.6957214698415548E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>0.45772277227722774</v>
+        <v>0.1601122158926768</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>46143</v>
+        <v>45413</v>
       </c>
       <c r="B20" s="3">
-        <v>108823</v>
+        <v>46181.351186470565</v>
       </c>
       <c r="C20" s="4">
-        <v>105653</v>
+        <v>45025.92172771386</v>
       </c>
       <c r="D20" s="2">
-        <v>0.4181188118811881</v>
+        <v>0.1102209616691588</v>
       </c>
       <c r="E20" s="2">
-        <v>0.4781188118811881</v>
+        <v>0.18233579145858037</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>46174</v>
+        <v>45444</v>
       </c>
       <c r="B21" s="3">
-        <v>111220</v>
+        <v>50157.565523625679</v>
       </c>
       <c r="C21" s="4">
-        <v>106942</v>
+        <v>48889.145811951712</v>
       </c>
       <c r="D21" s="2">
-        <v>0.42732673267326732</v>
+        <v>0.11971098646887336</v>
       </c>
       <c r="E21" s="2">
-        <v>0.48732673267326732</v>
+        <v>0.19808960384060173</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>46204</v>
+        <v>45474</v>
       </c>
       <c r="B22" s="3">
-        <v>116579</v>
+        <v>52886.137088110918</v>
       </c>
       <c r="C22" s="4">
-        <v>112096</v>
+        <v>51499.826198309929</v>
       </c>
       <c r="D22" s="2">
-        <v>0.44792079207920787</v>
+        <v>0.12622326413278009</v>
       </c>
       <c r="E22" s="2">
-        <v>0.50792079207920793</v>
+        <v>0.20906376789337106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>46235</v>
+        <v>45505</v>
       </c>
       <c r="B23" s="3">
-        <v>119594</v>
+        <v>61971.975439848378</v>
       </c>
       <c r="C23" s="4">
-        <v>117249</v>
+        <v>60270.246599882121</v>
       </c>
       <c r="D23" s="2">
-        <v>0.45950495049504952</v>
+        <v>0.1479084209107917</v>
       </c>
       <c r="E23" s="2">
-        <v>0.51950495049504952</v>
+        <v>0.24529451886929229</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>46266</v>
+        <v>45536</v>
       </c>
       <c r="B24" s="3">
-        <v>123537</v>
+        <v>72984.395475509431</v>
       </c>
       <c r="C24" s="4">
-        <v>121115</v>
+        <v>70895.891075441337</v>
       </c>
       <c r="D24" s="2">
-        <v>0.47465346534653463</v>
+        <v>0.17419174730663939</v>
       </c>
       <c r="E24" s="2">
-        <v>0.53465346534653468</v>
+        <v>0.28922676719878254</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>46296</v>
+        <v>45566</v>
       </c>
       <c r="B25" s="3">
-        <v>123627</v>
+        <v>82362.890294112396</v>
       </c>
       <c r="C25" s="4">
-        <v>122403</v>
+        <v>79807.504583624323</v>
       </c>
       <c r="D25" s="2">
-        <v>0.47499999999999998</v>
+        <v>0.19657538683554257</v>
       </c>
       <c r="E25" s="2">
-        <v>0.53499999999999992</v>
+        <v>0.32720224173198276</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>46327</v>
+        <v>45597</v>
       </c>
       <c r="B26" s="3">
-        <v>127531</v>
+        <v>90195.601161082479</v>
       </c>
       <c r="C26" s="4">
-        <v>126269</v>
+        <v>87381.236768610266</v>
       </c>
       <c r="D26" s="2">
-        <v>0.49</v>
+        <v>0.21526970612360263</v>
       </c>
       <c r="E26" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.3583846153690407</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>46357</v>
+        <v>45627</v>
       </c>
       <c r="B27" s="3">
-        <v>130134</v>
+        <v>98132.814063257742</v>
       </c>
       <c r="C27" s="4">
-        <v>128845</v>
+        <v>95009.618738509962</v>
       </c>
       <c r="D27" s="2">
-        <v>0.5</v>
+        <v>0.2342134402624797</v>
       </c>
       <c r="E27" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.39017333075227467</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>46388</v>
+        <v>45658</v>
       </c>
       <c r="B28" s="3">
-        <v>135339</v>
+        <v>110212.96347444477</v>
       </c>
       <c r="C28" s="4">
-        <v>133999</v>
+        <v>106467.77875837426</v>
       </c>
       <c r="D28" s="2">
-        <v>0.52000000000000013</v>
+        <v>0.26304511475879094</v>
       </c>
       <c r="E28" s="2">
-        <v>0.58000000000000007</v>
+        <v>0.43917910109476033</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>46419</v>
+        <v>45689</v>
       </c>
       <c r="B29" s="3">
-        <v>149461</v>
-      </c>
-      <c r="C29" s="4">
-        <v>149461</v>
-      </c>
+        <v>128012.35707556759</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="2">
-        <v>0.57425742574257421</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.63425742574257415</v>
-      </c>
+        <v>0.30552690079233563</v>
+      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>46447</v>
+        <v>45717</v>
       </c>
       <c r="B30" s="3">
-        <v>162345</v>
-      </c>
-      <c r="C30" s="4">
-        <v>162345</v>
-      </c>
+        <v>142631.36825359741</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="2">
-        <v>0.62376237623762387</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.68376237623762393</v>
-      </c>
+        <v>0.34041807286282039</v>
+      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>46478</v>
+        <v>45748</v>
       </c>
       <c r="B31" s="3">
-        <v>175230</v>
-      </c>
-      <c r="C31" s="4">
-        <v>175230</v>
-      </c>
+        <v>157892.92465673233</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="2">
-        <v>0.67326732673267331</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.73326732673267325</v>
-      </c>
+        <v>0.37684280665914216</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>46508</v>
+        <v>45778</v>
       </c>
       <c r="B32" s="3">
-        <v>195639</v>
-      </c>
-      <c r="C32" s="4">
-        <v>188114</v>
-      </c>
+        <v>184308.41095180364</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="2">
-        <v>0.75168316831683168</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.81168316831683174</v>
-      </c>
+        <v>0.43988860821321663</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>46539</v>
+        <v>45809</v>
       </c>
       <c r="B33" s="3">
-        <v>203009</v>
-      </c>
-      <c r="C33" s="4">
-        <v>200999</v>
-      </c>
+        <v>196878.24457871664</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.84000000000000008</v>
-      </c>
+        <v>0.46988901129335797</v>
+      </c>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>46569</v>
+        <v>45839</v>
       </c>
       <c r="B34" s="3">
-        <v>218161</v>
-      </c>
-      <c r="C34" s="4">
-        <v>213883</v>
-      </c>
+        <v>234245.73539975705</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="2">
-        <v>0.83821782178217819</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.89821782178217813</v>
-      </c>
+        <v>0.55907394563683732</v>
+      </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>46600</v>
+        <v>45870</v>
       </c>
       <c r="B35" s="3">
-        <v>228675</v>
-      </c>
-      <c r="C35" s="4">
-        <v>224191</v>
-      </c>
+        <v>258537.01816071186</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="2">
-        <v>0.87861386138613862</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.93861386138613856</v>
-      </c>
+        <v>0.61704991379937735</v>
+      </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>46631</v>
+        <v>45901</v>
       </c>
       <c r="B36" s="3">
-        <v>241533</v>
-      </c>
-      <c r="C36" s="4">
-        <v>234498</v>
-      </c>
+        <v>307271.24608400604</v>
+      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="2">
-        <v>0.92801980198019807</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
+        <v>0.73336382255055999</v>
+      </c>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>46661</v>
+        <v>45931</v>
       </c>
       <c r="B37" s="3">
-        <v>254598</v>
-      </c>
-      <c r="C37" s="4">
-        <v>244806</v>
-      </c>
+        <v>345127.06360155559</v>
+      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="2">
-        <v>0.9782178217821782</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
+        <v>0.82371424548878891</v>
+      </c>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>46692</v>
+        <v>45962</v>
       </c>
       <c r="B38" s="3">
-        <v>255062</v>
-      </c>
-      <c r="C38" s="4">
-        <v>252537</v>
-      </c>
+        <v>374531.88942040812</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
+        <v>0.89389469920443376</v>
+      </c>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>46722</v>
+        <v>45992</v>
       </c>
       <c r="B39" s="3">
-        <v>260267</v>
-      </c>
-      <c r="C39" s="4">
-        <v>257690</v>
-      </c>
+        <v>418988.82469461055</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
+      <c r="E39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/public/data/evolucao.xlsx
+++ b/public/data/evolucao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awer\c2di-3110\c2di-front\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ED150C-A9E4-411D-AED2-48A6AD63EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBE907B-7F97-41D2-B221-B5B9F2BE34FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{3D6D332C-6547-41E4-BA6F-553C23B0D63B}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,10 +480,10 @@
         <v>6234.32</v>
       </c>
       <c r="C2" s="3">
-        <v>6234.3173999999999</v>
+        <v>6234.3180999999995</v>
       </c>
       <c r="D2" s="2">
-        <v>1.487944220121867E-2</v>
+        <v>1.8253567512877815E-2</v>
       </c>
       <c r="E2" s="2">
         <v>2.4E-2</v>
@@ -494,16 +494,16 @@
         <v>44896</v>
       </c>
       <c r="B3" s="4">
-        <v>7112.1122559999994</v>
+        <v>7067.225152</v>
       </c>
       <c r="C3" s="3">
-        <v>7106.4984042599999</v>
+        <v>7063.4824072999991</v>
       </c>
       <c r="D3" s="2">
-        <v>1.697446766315026E-2</v>
+        <v>2.0692244132598292E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>2.7400800000000003E-2</v>
+        <v>2.72208E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -511,16 +511,16 @@
         <v>44927</v>
       </c>
       <c r="B4" s="3">
-        <v>7954.8975583359988</v>
+        <v>7776.0678347455996</v>
       </c>
       <c r="C4" s="3">
-        <v>7933.6948185158635</v>
+        <v>7769.8306480299998</v>
       </c>
       <c r="D4" s="2">
-        <v>1.8985942081233564E-2</v>
+        <v>2.27676762190979E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>3.0705336479999998E-2</v>
+        <v>2.9959212480000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -528,16 +528,16 @@
         <v>44958</v>
       </c>
       <c r="B5" s="3">
-        <v>9012.1034438388524</v>
+        <v>9016.3506543875228</v>
       </c>
       <c r="C5" s="3">
-        <v>8970.6287312958866</v>
+        <v>8995.9099242891352</v>
       </c>
       <c r="D5" s="2">
-        <v>2.1509173783829501E-2</v>
+        <v>2.6399120576044016E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>3.4853627438447998E-2</v>
+        <v>3.4788637531776002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -545,16 +545,16 @@
         <v>44986</v>
       </c>
       <c r="B6" s="3">
-        <v>10077.334070900604</v>
+        <v>10280.443016132653</v>
       </c>
       <c r="C6" s="3">
-        <v>10023.780544350022</v>
+        <v>10244.542221780466</v>
       </c>
       <c r="D6" s="2">
-        <v>2.405155812507815E-2</v>
+        <v>3.0100277280805384E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>3.9001209103623306E-2</v>
+        <v>3.9714708606275483E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -562,16 +562,16 @@
         <v>45017</v>
       </c>
       <c r="B7" s="3">
-        <v>11716.916324236132</v>
+        <v>10971.288786816767</v>
       </c>
       <c r="C7" s="3">
-        <v>11630.59256560933</v>
+        <v>10906.339649307483</v>
       </c>
       <c r="D7" s="2">
-        <v>2.7964746632028362E-2</v>
+        <v>3.2123015914075508E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>4.5440308726631511E-2</v>
+        <v>4.2486795266993505E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -579,16 +579,16 @@
         <v>45047</v>
       </c>
       <c r="B8" s="3">
-        <v>13524.836513065768</v>
+        <v>12351.476916198317</v>
       </c>
       <c r="C8" s="3">
-        <v>13404.257931864755</v>
+        <v>12276.175909260503</v>
       </c>
       <c r="D8" s="2">
-        <v>3.2279707037350336E-2</v>
+        <v>3.616409131606621E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>5.2533540918858694E-2</v>
+        <v>4.7840131470634685E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -596,16 +596,16 @@
         <v>45078</v>
       </c>
       <c r="B9" s="3">
-        <v>14832.688203879228</v>
+        <v>13286.483718754529</v>
       </c>
       <c r="C9" s="3">
-        <v>14696.428396496518</v>
+        <v>13191.978632091334</v>
       </c>
       <c r="D9" s="2">
-        <v>3.540115470786212E-2</v>
+        <v>3.8901713028692421E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>5.7629294387987993E-2</v>
+        <v>5.1514253567579424E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -613,16 +613,16 @@
         <v>45108</v>
       </c>
       <c r="B10" s="3">
-        <v>16631.89328300978</v>
+        <v>15417.635707242756</v>
       </c>
       <c r="C10" s="3">
-        <v>16461.469446915751</v>
+        <v>15293.460828183484</v>
       </c>
       <c r="D10" s="2">
-        <v>3.9695314773925801E-2</v>
+        <v>4.5141547798494684E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>6.468888295051653E-2</v>
+        <v>5.9833805518743503E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -630,16 +630,16 @@
         <v>45139</v>
       </c>
       <c r="B11" s="3">
-        <v>17591.553525439445</v>
+        <v>18151.182518136899</v>
       </c>
       <c r="C11" s="3">
-        <v>17370.142560385502</v>
+        <v>17995.815356523504</v>
       </c>
       <c r="D11" s="2">
-        <v>4.1985734436381317E-2</v>
+        <v>5.3145144223167795E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>6.8583153704137631E-2</v>
+        <v>7.0478239520527966E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -647,16 +647,16 @@
         <v>45170</v>
       </c>
       <c r="B12" s="3">
-        <v>20684.148635211699</v>
+        <v>19904.586749388924</v>
       </c>
       <c r="C12" s="3">
-        <v>20409.917508452963</v>
+        <v>19710.816560000196</v>
       </c>
       <c r="D12" s="2">
-        <v>4.9366826550297151E-2</v>
+        <v>5.827896515512581E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>8.0694938648288334E-2</v>
+        <v>7.7378059169587649E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -664,16 +664,16 @@
         <v>45200</v>
       </c>
       <c r="B13" s="3">
-        <v>24012.228150617262</v>
+        <v>21063.033698203359</v>
       </c>
       <c r="C13" s="3">
-        <v>23657.13538404783</v>
+        <v>20854.043920480206</v>
       </c>
       <c r="D13" s="2">
-        <v>5.7309948942239966E-2</v>
+        <v>6.1670800927154129E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>9.3824005166364854E-2</v>
+        <v>8.1896937825091567E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -681,16 +681,16 @@
         <v>45231</v>
       </c>
       <c r="B14" s="3">
-        <v>25705.090235235781</v>
+        <v>22638.548618828969</v>
       </c>
       <c r="C14" s="3">
-        <v>25258.72344954787</v>
+        <v>22370.132913499114</v>
       </c>
       <c r="D14" s="2">
-        <v>6.1350300342667884E-2</v>
+        <v>6.6283776836505257E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>0.10070130474505939</v>
+        <v>8.8194812343841106E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -698,16 +698,16 @@
         <v>45261</v>
       </c>
       <c r="B15" s="3">
-        <v>29586.558860756384</v>
+        <v>25355.174453088446</v>
       </c>
       <c r="C15" s="3">
-        <v>29060.161328704824</v>
+        <v>25034.415743496858</v>
       </c>
       <c r="D15" s="2">
-        <v>7.0614195694410742E-2</v>
+        <v>7.423783005688589E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>0.1159575524139359</v>
+        <v>9.8857565156211497E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -715,16 +715,16 @@
         <v>45292</v>
       </c>
       <c r="B16" s="3">
-        <v>32417.992543730768</v>
+        <v>27201.031153273285</v>
       </c>
       <c r="C16" s="3">
-        <v>31826.688687197518</v>
+        <v>26789.328287115986</v>
       </c>
       <c r="D16" s="2">
-        <v>7.7371974222365844E-2</v>
+        <v>7.9642344085027184E-2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.12711266895615653</v>
+        <v>0.10632131132550547</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -732,16 +732,16 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3">
-        <v>34252.850921705933</v>
+        <v>28982.698693812687</v>
       </c>
       <c r="C17" s="4">
-        <v>33621.713929155456</v>
+        <v>28501.166364662702</v>
       </c>
       <c r="D17" s="2">
-        <v>8.1751227963351755E-2</v>
+        <v>8.4858917622596466E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>0.13433266855286621</v>
+        <v>0.11345547131544689</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -749,16 +749,16 @@
         <v>45352</v>
       </c>
       <c r="B18" s="3">
-        <v>38520.756146550491</v>
+        <v>30895.556807604324</v>
       </c>
       <c r="C18" s="4">
-        <v>37726.925199905338</v>
+        <v>30373.692994821045</v>
       </c>
       <c r="D18" s="2">
-        <v>9.1937430967585387E-2</v>
+        <v>9.0459606185687824E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>0.1514063507259355</v>
+        <v>0.12097756906366103</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -766,16 +766,16 @@
         <v>45383</v>
       </c>
       <c r="B19" s="3">
-        <v>40623.98943215215</v>
+        <v>32835.797775121871</v>
       </c>
       <c r="C19" s="4">
-        <v>39677.407232740443</v>
+        <v>32229.52563680461</v>
       </c>
       <c r="D19" s="2">
-        <v>9.6957214698415548E-2</v>
+        <v>9.6140469454149016E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>0.1601122158926768</v>
+        <v>0.12878062226826717</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -783,16 +783,16 @@
         <v>45413</v>
       </c>
       <c r="B20" s="3">
-        <v>46181.351186470565</v>
+        <v>34579.378636980844</v>
       </c>
       <c r="C20" s="4">
-        <v>45025.92172771386</v>
+        <v>33892.569159663733</v>
       </c>
       <c r="D20" s="2">
-        <v>0.1102209616691588</v>
+        <v>0.10124552838216433</v>
       </c>
       <c r="E20" s="2">
-        <v>0.18233579145858037</v>
+        <v>0.13581204424411458</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -800,16 +800,16 @@
         <v>45444</v>
       </c>
       <c r="B21" s="3">
-        <v>50157.565523625679</v>
+        <v>37373.392430848893</v>
       </c>
       <c r="C21" s="4">
-        <v>48889.145811951712</v>
+        <v>36536.189554117504</v>
       </c>
       <c r="D21" s="2">
-        <v>0.11971098646887336</v>
+        <v>0.1094261670754432</v>
       </c>
       <c r="E21" s="2">
-        <v>0.19808960384060173</v>
+        <v>0.14716593114292256</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -817,16 +817,16 @@
         <v>45474</v>
       </c>
       <c r="B22" s="3">
-        <v>52886.137088110918</v>
+        <v>44429.488921793163</v>
       </c>
       <c r="C22" s="4">
-        <v>51499.826198309929</v>
+        <v>43342.881668049602</v>
       </c>
       <c r="D22" s="2">
-        <v>0.12622326413278009</v>
+        <v>0.13008582741928687</v>
       </c>
       <c r="E22" s="2">
-        <v>0.20906376789337106</v>
+        <v>0.17531877377056365</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -834,16 +834,16 @@
         <v>45505</v>
       </c>
       <c r="B23" s="3">
-        <v>61971.975439848378</v>
+        <v>49952.074394772055</v>
       </c>
       <c r="C23" s="4">
-        <v>60270.246599882121</v>
+        <v>48635.047519718464</v>
       </c>
       <c r="D23" s="2">
-        <v>0.1479084209107917</v>
+        <v>0.14625549576750424</v>
       </c>
       <c r="E23" s="2">
-        <v>0.24529451886929229</v>
+        <v>0.19749659865253996</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -851,16 +851,16 @@
         <v>45536</v>
       </c>
       <c r="B24" s="3">
-        <v>72984.395475509431</v>
+        <v>53009.141347732104</v>
       </c>
       <c r="C24" s="4">
-        <v>70895.891075441337</v>
+        <v>51470.470790118045</v>
       </c>
       <c r="D24" s="2">
-        <v>0.17419174730663939</v>
+        <v>0.15520633210847548</v>
       </c>
       <c r="E24" s="2">
-        <v>0.28922676719878254</v>
+        <v>0.21015613062616778</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -868,16 +868,16 @@
         <v>45566</v>
       </c>
       <c r="B25" s="3">
-        <v>82362.890294112396</v>
+        <v>57159.757115259526</v>
       </c>
       <c r="C25" s="4">
-        <v>79807.504583624323</v>
+        <v>55351.344287692948</v>
       </c>
       <c r="D25" s="2">
-        <v>0.19657538683554257</v>
+        <v>0.16735898791256912</v>
       </c>
       <c r="E25" s="2">
-        <v>0.32720224173198276</v>
+        <v>0.22722080843301262</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -885,16 +885,16 @@
         <v>45597</v>
       </c>
       <c r="B26" s="3">
-        <v>90195.601161082479</v>
+        <v>67214.158391833684</v>
       </c>
       <c r="C26" s="4">
-        <v>87381.236768610266</v>
+        <v>65059.970075754303</v>
       </c>
       <c r="D26" s="2">
-        <v>0.21526970612360263</v>
+        <v>0.19679743388639004</v>
       </c>
       <c r="E26" s="2">
-        <v>0.3583846153690407</v>
+        <v>0.26730255904059608</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -902,16 +902,16 @@
         <v>45627</v>
       </c>
       <c r="B27" s="3">
-        <v>98132.814063257742</v>
+        <v>75172.314745426789</v>
       </c>
       <c r="C27" s="4">
-        <v>95009.618738509962</v>
+        <v>72756.564535716039</v>
       </c>
       <c r="D27" s="2">
-        <v>0.2342134402624797</v>
+        <v>0.22009825005853861</v>
       </c>
       <c r="E27" s="2">
-        <v>0.39017333075227467</v>
+        <v>0.29897791228690673</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -919,16 +919,16 @@
         <v>45658</v>
       </c>
       <c r="B28" s="3">
-        <v>110212.96347444477</v>
+        <v>81426.6513322463</v>
       </c>
       <c r="C28" s="4">
-        <v>106467.77875837426</v>
+        <v>78802.635048634038</v>
       </c>
       <c r="D28" s="2">
-        <v>0.26304511475879094</v>
+        <v>0.23841042446340904</v>
       </c>
       <c r="E28" s="2">
-        <v>0.43917910109476033</v>
+        <v>0.32388277238040603</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -936,11 +936,11 @@
         <v>45689</v>
       </c>
       <c r="B29" s="3">
-        <v>128012.35707556759</v>
+        <v>87680.218154562812</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="2">
-        <v>0.30552690079233563</v>
+        <v>0.25672034506219882</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -949,11 +949,11 @@
         <v>45717</v>
       </c>
       <c r="B30" s="3">
-        <v>142631.36825359741</v>
+        <v>101261.88394670459</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="2">
-        <v>0.34041807286282039</v>
+        <v>0.29648632651233342</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -962,11 +962,11 @@
         <v>45748</v>
       </c>
       <c r="B31" s="3">
-        <v>157892.92465673233</v>
+        <v>108259.08012742188</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="2">
-        <v>0.37684280665914216</v>
+        <v>0.31697353167433567</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -975,11 +975,11 @@
         <v>45778</v>
       </c>
       <c r="B32" s="3">
-        <v>184308.41095180364</v>
+        <v>125104.19299524873</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="2">
-        <v>0.43988860821321663</v>
+        <v>0.36629461320286233</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -988,11 +988,11 @@
         <v>45809</v>
       </c>
       <c r="B33" s="3">
-        <v>196878.24457871664</v>
+        <v>144983.24926219374</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="2">
-        <v>0.46988901129335797</v>
+        <v>0.42449882724079713</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -1001,11 +1001,11 @@
         <v>45839</v>
       </c>
       <c r="B34" s="3">
-        <v>234245.73539975705</v>
+        <v>169514.41503735693</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="2">
-        <v>0.55907394563683732</v>
+        <v>0.49632402880994003</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -1014,11 +1014,11 @@
         <v>45870</v>
       </c>
       <c r="B35" s="3">
-        <v>258537.01816071186</v>
+        <v>200162.62127611105</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="2">
-        <v>0.61704991379937735</v>
+        <v>0.58605941321877719</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -1027,11 +1027,11 @@
         <v>45901</v>
       </c>
       <c r="B36" s="3">
-        <v>307271.24608400604</v>
+        <v>233309.55135943505</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="2">
-        <v>0.73336382255055999</v>
+        <v>0.68311085204780664</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -1040,11 +1040,11 @@
         <v>45931</v>
       </c>
       <c r="B37" s="3">
-        <v>345127.06360155559</v>
+        <v>276145.18498902733</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="2">
-        <v>0.82371424548878891</v>
+        <v>0.80853000448378398</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -1053,11 +1053,11 @@
         <v>45962</v>
       </c>
       <c r="B38" s="3">
-        <v>374531.88942040812</v>
+        <v>297353.13519618462</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="2">
-        <v>0.89389469920443376</v>
+        <v>0.87062510882813859</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -1066,7 +1066,7 @@
         <v>45992</v>
       </c>
       <c r="B39" s="3">
-        <v>418988.82469461055</v>
+        <v>341539.81108633766</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="2">
